--- a/proy_tanques_2.0/cuadro-control-proyecto-tanques2.0.xlsx
+++ b/proy_tanques_2.0/cuadro-control-proyecto-tanques2.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Francisco\personal_Projects_WS\proy_tanques_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E1D06A-7070-4424-BAE3-1CA2DF106C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F8BB8-E5E4-46AC-9583-49A42DA70550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,6 +853,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -872,9 +875,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,7 +1065,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1077,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,7 +1416,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1425,7 +1425,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31179,10 +31179,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DG1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="L17" sqref="L17"/>
+      <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -31222,17 +31222,17 @@
     </row>
     <row r="2" spans="1:111" ht="25.5" customHeight="1"/>
     <row r="3" spans="1:111" ht="23.25" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="75" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:111" ht="23.25" customHeight="1">
       <c r="B4" s="5"/>
@@ -31253,10 +31253,10 @@
       <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:111" ht="23.25" customHeight="1">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="73"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="6">
         <v>195</v>
       </c>
@@ -31272,10 +31272,10 @@
       <c r="T5" s="12"/>
     </row>
     <row r="6" spans="1:111" ht="23.25" customHeight="1">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="73"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="15">
         <f>IF(D4="","",D4+D5)</f>
         <v>45276</v>
@@ -31292,28 +31292,28 @@
       <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:111" ht="24" customHeight="1">
-      <c r="L7" s="76" t="s">
+      <c r="L7" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="73"/>
-      <c r="O7" s="72" t="s">
+      <c r="M7" s="74"/>
+      <c r="O7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
       <c r="DB7" s="17"/>
       <c r="DC7" s="17"/>
     </row>
@@ -31765,12 +31765,14 @@
         <v>36</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30" t="str">
+        <v>22</v>
+      </c>
+      <c r="M9" s="29">
+        <v>45081</v>
+      </c>
+      <c r="N9" s="30">
         <f t="shared" ref="N9:N28" si="2">IF(I9="","",IF(AND(L9="Completado",M9=""),"Completar fecha de finalización",IF(AND(L9="Completado",M9&lt;&gt;""),M9-I9+1,"")))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P9" s="31" t="str">
         <f t="shared" ref="P9:DA9" si="3">IF(AND(P$8&gt;=$I9,P$8&lt;=$J9),"x","")</f>
@@ -32176,12 +32178,14 @@
         <v>36</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="41"/>
-      <c r="N10" s="42" t="str">
+        <v>22</v>
+      </c>
+      <c r="M10" s="41">
+        <v>45081</v>
+      </c>
+      <c r="N10" s="42">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P10" s="43" t="str">
         <f t="shared" ref="P10:DA10" si="6">IF(AND(P$8&gt;=$I10,P$8&lt;=$J10),"x","")</f>
@@ -32552,14 +32556,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:111" ht="15.6">
+    <row r="11" spans="1:111" ht="31.2">
       <c r="B11" s="35">
         <v>3</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="72" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="37">
@@ -35039,7 +35043,7 @@
         <v>45235</v>
       </c>
       <c r="J17" s="40">
-        <f>IF(I17="","",I17+E17-1)</f>
+        <f t="shared" ref="J17:J22" si="14">IF(I17="","",I17+E17-1)</f>
         <v>45241</v>
       </c>
       <c r="K17" s="25" t="s">
@@ -35054,363 +35058,363 @@
         <v/>
       </c>
       <c r="P17" s="43" t="str">
-        <f t="shared" ref="P17:DA17" si="14">IF(AND(P$8&gt;=$I17,P$8&lt;=$J17),"x","")</f>
+        <f t="shared" ref="P17:DA17" si="15">IF(AND(P$8&gt;=$I17,P$8&lt;=$J17),"x","")</f>
         <v/>
       </c>
       <c r="Q17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="R17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="T17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="U17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="V17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="W17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="X17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Y17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Z17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AA17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AB17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AC17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AD17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AE17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AF17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AG17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AH17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AI17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AJ17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AK17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AL17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AM17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AN17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AO17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AP17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AQ17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AR17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AS17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AT17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AU17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AV17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AW17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AX17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AY17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AZ17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BA17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BB17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BC17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BD17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BE17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BF17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BG17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BH17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BI17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BJ17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BK17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BL17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BM17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BN17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BO17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BP17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BQ17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BR17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BS17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BT17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BU17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BV17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BW17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BX17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BY17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="BZ17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CA17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CB17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CC17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CD17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CE17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CF17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CG17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CH17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CI17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CJ17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CK17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CL17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CM17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CN17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CO17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CP17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CQ17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CR17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CS17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CT17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CU17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CV17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CW17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CX17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CY17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="CZ17" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="DA17" s="45" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="DC17" s="34">
@@ -35449,7 +35453,7 @@
         <v>45144</v>
       </c>
       <c r="J18" s="40">
-        <f>IF(I18="","",I18+E18-1)</f>
+        <f t="shared" si="14"/>
         <v>45228</v>
       </c>
       <c r="K18" s="25" t="s">
@@ -35464,363 +35468,363 @@
         <v/>
       </c>
       <c r="P18" s="43" t="str">
-        <f t="shared" ref="P18:DA18" si="15">IF(AND(P$8&gt;=$I18,P$8&lt;=$J18),"x","")</f>
+        <f t="shared" ref="P18:DA18" si="16">IF(AND(P$8&gt;=$I18,P$8&lt;=$J18),"x","")</f>
         <v/>
       </c>
       <c r="Q18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="R18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="T18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="U18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="V18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="W18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="X18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Y18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Z18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AA18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AB18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AC18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AD18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AE18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AF18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AG18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AH18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AI18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AJ18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AK18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AL18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AM18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AN18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AO18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AP18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AQ18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AR18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AS18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AT18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AU18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AV18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AW18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AX18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AY18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="AZ18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BA18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BB18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BC18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BD18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BE18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BF18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BG18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BH18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BI18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BJ18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BK18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BL18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BM18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BN18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BO18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BP18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BQ18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BR18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BS18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BT18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BU18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BV18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BW18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BX18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BY18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="BZ18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="CA18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CB18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CC18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CD18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CE18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CF18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CG18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CH18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CI18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CJ18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CK18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CL18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CM18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CN18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CO18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CP18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CQ18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CR18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CS18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CT18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CU18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CV18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CW18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CX18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CY18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="CZ18" s="44" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="DA18" s="45" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="DC18" s="34">
@@ -35859,7 +35863,7 @@
         <v>45228</v>
       </c>
       <c r="J19" s="40">
-        <f>IF(I19="","",I19+E19-1)</f>
+        <f t="shared" si="14"/>
         <v>45249</v>
       </c>
       <c r="K19" s="25" t="s">
@@ -35874,363 +35878,363 @@
         <v/>
       </c>
       <c r="P19" s="43" t="str">
-        <f t="shared" ref="P19:DA19" si="16">IF(AND(P$8&gt;=$I19,P$8&lt;=$J19),"x","")</f>
+        <f t="shared" ref="P19:DA19" si="17">IF(AND(P$8&gt;=$I19,P$8&lt;=$J19),"x","")</f>
         <v/>
       </c>
       <c r="Q19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="T19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="U19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="V19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="W19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="X19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Y19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Z19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AA19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AB19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AC19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AD19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AE19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AF19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AG19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AH19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AI19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AJ19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AK19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AL19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AM19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AN19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AO19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AP19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AQ19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AR19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AS19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AT19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AU19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AV19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AW19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AX19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AY19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="AZ19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BA19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BB19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BC19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BD19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BE19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BF19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BG19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BH19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BI19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BJ19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BK19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BL19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BM19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BN19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BO19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BP19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BQ19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BR19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BS19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BT19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BU19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BV19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BW19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BX19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BY19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="BZ19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CA19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CB19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CC19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CD19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CE19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CF19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CG19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CH19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CI19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CJ19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CK19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CL19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CM19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CN19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CO19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CP19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CQ19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CR19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CS19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CT19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CU19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CV19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CW19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CX19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CY19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="CZ19" s="44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="DA19" s="45" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="DC19" s="34">
@@ -36269,7 +36273,7 @@
         <v>45228</v>
       </c>
       <c r="J20" s="40">
-        <f>IF(I20="","",I20+E20-1)</f>
+        <f t="shared" si="14"/>
         <v>45235</v>
       </c>
       <c r="K20" s="25" t="s">
@@ -36284,363 +36288,363 @@
         <v/>
       </c>
       <c r="P20" s="43" t="str">
-        <f t="shared" ref="P20:DA20" si="17">IF(AND(P$8&gt;=$I20,P$8&lt;=$J20),"x","")</f>
+        <f t="shared" ref="P20:DA20" si="18">IF(AND(P$8&gt;=$I20,P$8&lt;=$J20),"x","")</f>
         <v/>
       </c>
       <c r="Q20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="R20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="T20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="U20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="V20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="W20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="X20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Y20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Z20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AA20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AB20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AC20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AD20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AE20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AF20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AG20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AH20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AI20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AJ20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AK20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AL20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AM20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AN20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AO20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AP20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AQ20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AR20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AS20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AT20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AU20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AV20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AW20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AX20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AY20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AZ20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BA20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BB20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BC20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BD20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BE20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BF20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BG20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BH20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BI20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BJ20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BK20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BL20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BM20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BN20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BO20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BP20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BQ20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BR20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BS20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BT20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BU20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BV20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BW20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BX20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BY20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="BZ20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CA20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CB20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CC20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CD20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CE20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CF20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CG20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CH20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CI20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CJ20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CK20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CL20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CM20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CN20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CO20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CP20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CQ20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CR20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CS20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CT20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CU20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CV20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CW20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CX20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CY20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="CZ20" s="44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DA20" s="45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="DC20" s="34">
@@ -36679,7 +36683,7 @@
         <v>45242</v>
       </c>
       <c r="J21" s="40">
-        <f>IF(I21="","",I21+E21-1)</f>
+        <f t="shared" si="14"/>
         <v>45263</v>
       </c>
       <c r="K21" s="25" t="s">
@@ -36694,363 +36698,363 @@
         <v/>
       </c>
       <c r="P21" s="43" t="str">
-        <f t="shared" ref="P21:DA21" si="18">IF(AND(P$8&gt;=$I21,P$8&lt;=$J21),"x","")</f>
+        <f t="shared" ref="P21:DA21" si="19">IF(AND(P$8&gt;=$I21,P$8&lt;=$J21),"x","")</f>
         <v/>
       </c>
       <c r="Q21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="S21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="T21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="U21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="V21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="W21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="X21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Y21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Z21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AA21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AB21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AC21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AD21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AE21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AF21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AG21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AH21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AI21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AJ21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AK21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AL21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AM21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AN21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AO21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AP21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AQ21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AR21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AS21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AT21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AU21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AV21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AW21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AX21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AY21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AZ21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BA21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BB21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BC21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BD21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BE21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BF21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BG21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BH21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BI21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BJ21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BK21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BL21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BM21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BN21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BO21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BP21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BQ21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BR21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BS21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BT21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BU21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BV21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BW21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BX21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BY21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="BZ21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CA21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CB21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CC21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CD21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CE21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CF21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CG21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CH21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CI21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CJ21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CK21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CL21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CM21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CN21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CO21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CP21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CQ21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CR21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CS21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CT21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CU21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CV21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CW21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CX21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CY21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="CZ21" s="44" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="DA21" s="45" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="DC21" s="34">
@@ -37089,7 +37093,7 @@
         <v>45270</v>
       </c>
       <c r="J22" s="40">
-        <f>IF(I22="","",I22+E22-1)</f>
+        <f t="shared" si="14"/>
         <v>45276</v>
       </c>
       <c r="K22" s="25" t="s">
@@ -37104,363 +37108,363 @@
         <v/>
       </c>
       <c r="P22" s="43" t="str">
-        <f t="shared" ref="P22:DA22" si="19">IF(AND(P$8&gt;=$I22,P$8&lt;=$J22),"x","")</f>
+        <f t="shared" ref="P22:DA22" si="20">IF(AND(P$8&gt;=$I22,P$8&lt;=$J22),"x","")</f>
         <v/>
       </c>
       <c r="Q22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="R22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="T22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="U22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="V22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="W22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="X22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Y22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Z22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AA22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AB22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AC22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AD22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AE22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AF22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AG22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AH22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AI22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AJ22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AK22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AL22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AM22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AN22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AO22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AP22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AQ22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AR22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AS22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AT22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AU22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AV22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AW22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AX22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AY22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="AZ22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BA22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BB22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BC22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BD22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BE22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BF22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BG22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BH22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BI22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BJ22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BK22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BL22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BM22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BN22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BO22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BP22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BQ22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BR22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BS22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BT22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BU22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BV22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BW22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BX22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BY22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BZ22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CA22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CB22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CC22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CD22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CE22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CF22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CG22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CH22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CI22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CJ22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CK22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CL22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CM22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CN22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CO22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CP22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CQ22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CR22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CS22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CT22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CU22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CV22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CW22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CX22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CY22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="CZ22" s="44" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="DA22" s="45" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="DC22" s="34">
@@ -37514,363 +37518,363 @@
         <v/>
       </c>
       <c r="P23" s="43" t="str">
-        <f t="shared" ref="P23:DA23" si="20">IF(AND(P$8&gt;=$I23,P$8&lt;=$J23),"x","")</f>
+        <f t="shared" ref="P23:DA23" si="21">IF(AND(P$8&gt;=$I23,P$8&lt;=$J23),"x","")</f>
         <v/>
       </c>
       <c r="Q23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="R23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="U23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="V23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="W23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="X23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Y23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Z23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AA23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AB23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AC23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AD23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AE23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AF23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AG23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AH23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AI23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AJ23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AK23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AL23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AM23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AN23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AO23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AP23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AQ23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AR23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AS23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AT23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AU23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AV23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AW23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AX23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AY23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="AZ23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BA23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BB23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BC23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BD23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BE23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BF23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BG23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BH23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BI23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BJ23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BK23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BL23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BM23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BN23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BO23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BP23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BQ23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BR23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BS23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BT23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BU23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BV23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BW23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BX23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BY23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BZ23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CA23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CB23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CC23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CD23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CE23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CF23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CG23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CH23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CI23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CJ23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CK23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CL23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CM23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CN23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CO23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CP23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CQ23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CR23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CS23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CT23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CU23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CV23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CW23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CX23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CY23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="CZ23" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DA23" s="45" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="DC23" s="34">
@@ -37924,363 +37928,363 @@
         <v/>
       </c>
       <c r="P24" s="43" t="str">
-        <f t="shared" ref="P24:DA24" si="21">IF(AND(P$8&gt;=$I24,P$8&lt;=$J24),"x","")</f>
+        <f t="shared" ref="P24:DA24" si="22">IF(AND(P$8&gt;=$I24,P$8&lt;=$J24),"x","")</f>
         <v/>
       </c>
       <c r="Q24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="R24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="S24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="T24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="V24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="W24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="X24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Y24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Z24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AA24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AB24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AC24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AD24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AE24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AF24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AG24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AH24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AI24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AJ24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AK24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AL24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AM24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AN24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AO24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AP24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AQ24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AR24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AS24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AT24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AU24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AV24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AW24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AX24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AY24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="AZ24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BA24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BB24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BC24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BD24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BE24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BF24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BG24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BH24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BI24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BJ24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BK24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BL24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BM24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BN24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BO24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BP24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BQ24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BR24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BS24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BT24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BU24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BV24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BW24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BX24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BY24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BZ24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CA24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CB24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CC24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CD24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CE24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CF24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CG24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CH24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CI24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CJ24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CK24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CL24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CM24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CN24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CO24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CP24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CQ24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CR24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CS24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CT24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CU24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CV24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CW24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CX24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CY24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="CZ24" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="DA24" s="45" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="DC24" s="34">
@@ -38318,363 +38322,363 @@
         <v/>
       </c>
       <c r="P25" s="43" t="str">
-        <f t="shared" ref="P25:DA25" si="22">IF(AND(P$8&gt;=$I25,P$8&lt;=$J25),"x","")</f>
+        <f t="shared" ref="P25:DA25" si="23">IF(AND(P$8&gt;=$I25,P$8&lt;=$J25),"x","")</f>
         <v/>
       </c>
       <c r="Q25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="R25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="S25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="T25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="U25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="W25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="X25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Y25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Z25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AA25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AB25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AC25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AD25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AE25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AF25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AG25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AH25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AI25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AJ25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AK25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AL25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AM25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AN25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AO25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AP25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AQ25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AR25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AS25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AT25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AU25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AV25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AW25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AX25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AY25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="AZ25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BA25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BB25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BC25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BD25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BE25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BF25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BG25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BH25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BI25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BJ25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BK25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BL25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BM25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BN25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BO25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BP25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BQ25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BR25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BS25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BT25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BU25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BV25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BW25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BX25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BY25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BZ25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CA25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CB25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CC25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CD25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CE25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CF25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CG25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CH25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CI25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CJ25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CK25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CL25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CM25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CN25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CO25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CP25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CQ25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CR25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CS25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CT25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CU25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CV25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CW25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CX25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CY25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="CZ25" s="44" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="DA25" s="45" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="DC25" s="34">
@@ -38712,363 +38716,363 @@
         <v/>
       </c>
       <c r="P26" s="43" t="str">
-        <f t="shared" ref="P26:DA26" si="23">IF(AND(P$8&gt;=$I26,P$8&lt;=$J26),"x","")</f>
+        <f t="shared" ref="P26:DA26" si="24">IF(AND(P$8&gt;=$I26,P$8&lt;=$J26),"x","")</f>
         <v/>
       </c>
       <c r="Q26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="R26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="S26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="T26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="U26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="V26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="X26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Y26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Z26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AA26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AB26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AC26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AD26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AE26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AF26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AG26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AH26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AI26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AJ26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AK26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AL26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AM26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AN26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AO26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AP26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AQ26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AR26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AS26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AT26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AU26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AV26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AW26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AX26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AY26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="AZ26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BA26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BB26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BC26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BD26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BE26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BF26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BG26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BH26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BI26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BJ26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BK26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BL26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BM26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BN26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BO26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BP26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BQ26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BR26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BS26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BT26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BU26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BV26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BW26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BX26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BY26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BZ26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CA26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CB26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CC26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CD26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CE26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CF26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CG26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CH26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CI26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CJ26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CK26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CL26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CM26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CN26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CO26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CP26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CQ26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CR26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CS26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CT26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CU26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CV26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CW26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CX26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CY26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="CZ26" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DA26" s="45" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="DC26" s="34">
@@ -39106,363 +39110,363 @@
         <v/>
       </c>
       <c r="P27" s="43" t="str">
-        <f t="shared" ref="P27:DA27" si="24">IF(AND(P$8&gt;=$I27,P$8&lt;=$J27),"x","")</f>
+        <f t="shared" ref="P27:DA27" si="25">IF(AND(P$8&gt;=$I27,P$8&lt;=$J27),"x","")</f>
         <v/>
       </c>
       <c r="Q27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="R27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="S27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="T27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="U27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="V27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="W27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="X27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Y27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Z27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AA27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AB27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AC27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AD27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AE27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AF27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AG27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AH27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AI27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AJ27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AK27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AL27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AM27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AN27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AO27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AP27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AQ27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AR27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AS27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AT27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AU27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AV27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AW27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AX27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AY27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="AZ27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BA27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BB27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BC27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BD27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BE27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BF27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BG27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BH27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BI27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BJ27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BK27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BL27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BM27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BN27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BO27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BP27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BQ27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BR27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BS27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BT27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BU27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BV27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BW27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BX27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BY27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BZ27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CA27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CB27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CC27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CD27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CE27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CF27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CG27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CH27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CI27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CJ27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CK27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CL27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CM27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CN27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CO27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CP27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CQ27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CR27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CS27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CT27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CU27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CV27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CW27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CX27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CY27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="CZ27" s="44" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="DA27" s="45" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="DC27" s="34">
@@ -39500,363 +39504,363 @@
         <v/>
       </c>
       <c r="P28" s="53" t="str">
-        <f t="shared" ref="P28:DA28" si="25">IF(AND(P$8&gt;=$I28,P$8&lt;=$J28),"x","")</f>
+        <f t="shared" ref="P28:DA28" si="26">IF(AND(P$8&gt;=$I28,P$8&lt;=$J28),"x","")</f>
         <v/>
       </c>
       <c r="Q28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="R28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="S28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="T28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="U28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="V28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="W28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="X28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Y28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Z28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AA28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AB28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AC28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AD28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AE28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AF28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AG28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AH28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AI28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AJ28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AK28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AL28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AM28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AN28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AO28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AP28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AQ28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AR28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AS28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AT28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AU28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AV28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AW28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AX28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AY28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AZ28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BA28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BB28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BC28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BD28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BE28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BF28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BG28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BH28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BI28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BJ28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BK28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BL28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BM28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BN28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BO28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BP28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BQ28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BR28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BS28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BT28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BU28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BV28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BW28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BX28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BY28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BZ28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CA28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CB28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CC28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CD28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CE28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CF28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CG28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CH28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CI28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CJ28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CK28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CL28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CM28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CN28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CO28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CP28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CQ28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CR28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CS28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CT28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CU28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CV28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CW28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CX28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CY28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="CZ28" s="54" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="DA28" s="55" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="DC28" s="34">
@@ -40928,7 +40932,7 @@
       </c>
       <c r="C3" s="57">
         <f ca="1">TODAY()</f>
-        <v>45073</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="14.25" customHeight="1">
@@ -40946,7 +40950,7 @@
       </c>
       <c r="C5" s="58">
         <f ca="1">IF(Proyecto!D4="","",C3-Proyecto!D4)</f>
-        <v>-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="14.25" customHeight="1">
@@ -40955,7 +40959,7 @@
       </c>
       <c r="C6" s="58">
         <f ca="1">IF(Proyecto!D4="","",C4-C5)</f>
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="N6" s="59" t="s">
         <v>30</v>
@@ -40968,7 +40972,7 @@
       </c>
       <c r="R6" s="61">
         <f>IF(COUNTA(Proyecto!$L$9:$L$28)=0,NA(),COUNTIF(Proyecto!$L$9:$L$28,Reportes!Q6)/COUNTA(Proyecto!$L$9:$L$28))</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="14.25" customHeight="1">
@@ -41034,7 +41038,7 @@
       </c>
       <c r="R9" s="61">
         <f>IF(COUNTA(Proyecto!$L$9:$L$28)=0,NA(),COUNTIF(Proyecto!$L$9:$L$28,Reportes!Q9)/COUNTA(Proyecto!$L$9:$L$28))</f>
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="14.25" customHeight="1">
@@ -41251,10 +41255,10 @@
     </row>
     <row r="24" spans="3:16" ht="14.25" customHeight="1">
       <c r="C24" s="69"/>
-      <c r="F24" s="77" t="s">
+      <c r="F24" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="78"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="68"/>
       <c r="I24" s="68"/>
       <c r="J24" s="68"/>
@@ -41338,8 +41342,8 @@
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
       <c r="G29" s="67"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="73"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="74"/>
     </row>
     <row r="30" spans="3:16" ht="14.25" customHeight="1">
       <c r="D30" s="67"/>

--- a/proy_tanques_2.0/cuadro-control-proyecto-tanques2.0.xlsx
+++ b/proy_tanques_2.0/cuadro-control-proyecto-tanques2.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Francisco\personal_Projects_WS\proy_tanques_2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05F8BB8-E5E4-46AC-9583-49A42DA70550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5401999C-6AC1-45FF-A668-3478665637F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1065,7 +1065,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1077,7 +1077,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,7 +1416,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.125</c:v>
+                  <c:v>0.1875</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1425,7 +1425,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.875</c:v>
+                  <c:v>0.8125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31179,10 +31179,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DG1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="M11" sqref="M11"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -32590,12 +32590,14 @@
         <v>36</v>
       </c>
       <c r="L11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42" t="str">
+        <v>22</v>
+      </c>
+      <c r="M11" s="41">
+        <v>45094</v>
+      </c>
+      <c r="N11" s="42">
         <f t="shared" si="2"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="P11" s="43" t="str">
         <f t="shared" ref="P11:DA11" si="8">IF(AND(P$8&gt;=$I11,P$8&lt;=$J11),"x","")</f>
@@ -32963,7 +32965,7 @@
       </c>
       <c r="DD11" s="34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:111" ht="14.25" customHeight="1">
@@ -40932,7 +40934,7 @@
       </c>
       <c r="C3" s="57">
         <f ca="1">TODAY()</f>
-        <v>45081</v>
+        <v>45094</v>
       </c>
     </row>
     <row r="4" spans="2:18" ht="14.25" customHeight="1">
@@ -40950,7 +40952,7 @@
       </c>
       <c r="C5" s="58">
         <f ca="1">IF(Proyecto!D4="","",C3-Proyecto!D4)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="14.25" customHeight="1">
@@ -40959,7 +40961,7 @@
       </c>
       <c r="C6" s="58">
         <f ca="1">IF(Proyecto!D4="","",C4-C5)</f>
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="N6" s="59" t="s">
         <v>30</v>
@@ -40972,7 +40974,7 @@
       </c>
       <c r="R6" s="61">
         <f>IF(COUNTA(Proyecto!$L$9:$L$28)=0,NA(),COUNTIF(Proyecto!$L$9:$L$28,Reportes!Q6)/COUNTA(Proyecto!$L$9:$L$28))</f>
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="14.25" customHeight="1">
@@ -41038,7 +41040,7 @@
       </c>
       <c r="R9" s="61">
         <f>IF(COUNTA(Proyecto!$L$9:$L$28)=0,NA(),COUNTIF(Proyecto!$L$9:$L$28,Reportes!Q9)/COUNTA(Proyecto!$L$9:$L$28))</f>
-        <v>0.875</v>
+        <v>0.8125</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="14.25" customHeight="1">
@@ -41285,7 +41287,7 @@
       </c>
       <c r="G25" s="71">
         <f>SUM(Proyecto!DD9:DD28)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I25" s="68"/>
       <c r="J25" s="68"/>
